--- a/其他几个项目.xlsx
+++ b/其他几个项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18850" windowHeight="9800"/>
+    <workbookView windowWidth="19070" windowHeight="10360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>screen_txt_gui_toolscreen_txt_gui_tool</t>
   </si>
@@ -55,12 +55,6 @@
   <si>
     <t>自动向后端上文章，定时任务1.0</t>
   </si>
-  <si>
-    <t>screen_and_AIlabeling</t>
-  </si>
-  <si>
-    <t>deepseek api 批量异步请求模块，功能：对句子集合异步批量请求deepseek api，根据返回结果标注句子</t>
-  </si>
 </sst>
 </file>
 
@@ -72,7 +66,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,25 +75,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -246,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,12 +237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,137 +547,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,25 +696,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD65"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1156,12 +1122,12 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1170,19 +1136,18 @@
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" customFormat="1"/>
     <row r="31" s="2" customFormat="1" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:16384">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1192,15 +1157,14 @@
       <c r="XFD32"/>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:16384">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="XFD33"/>
     </row>
-    <row r="34" customFormat="1"/>
     <row r="39" s="1" customFormat="1" spans="1:16383">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="2"/>
@@ -17586,16 +17550,6 @@
       <c r="XFB39" s="2"/>
       <c r="XFC39" s="2"/>
     </row>
-    <row r="64" s="6" customFormat="1" ht="15" spans="1:1">
-      <c r="A64" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" s="6" customFormat="1" ht="15" spans="1:1">
-      <c r="A65" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
